--- a/biology/Botanique/Groupe_Emsland/Groupe_Emsland.xlsx
+++ b/biology/Botanique/Groupe_Emsland/Groupe_Emsland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groupe Emsland  est un groupe agroalimentaire allemand spécialisé dans la transformation industrielle de la pomme de terre. C'est le premier producteur d'amidon de pomme de terre en Allemagne et l'un des premiers fabricants mondiaux du secteur.
@@ -514,7 +526,9 @@
           <t>Emsland Stärke GmbH</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emsland-Stärke GmbH  est la principale entreprise du groupe Emsland. 
 Elle exploite à Emlichheim dans l'arrondissement de Grafschaft Bentheim (Basse-Saxe) la plus importante usine d'Europe de transformation de fécule de pomme de terre. L'usine a été construite en 1928 sous le nom de Emlichheimer Kartoffelfabrik AG. Elle est devenue par la suite Emsland-Stärke GmbH. 
